--- a/bacteria_archaea/terrestrial_deep_subsurface/terrestrial_deep_subsurface_prok_biomass_estimate.xlsx
+++ b/bacteria_archaea/terrestrial_deep_subsurface/terrestrial_deep_subsurface_prok_biomass_estimate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Parameter</t>
   </si>
@@ -37,22 +37,13 @@
     <t>Fraction of bacteria</t>
   </si>
   <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
     <t>g C</t>
   </si>
   <si>
     <t>Unitless</t>
   </si>
   <si>
-    <t>18.2</t>
-  </si>
-  <si>
-    <t>1.4</t>
+    <t>20.0</t>
   </si>
 </sst>
 </file>
@@ -438,38 +429,38 @@
         <v>6.17758444661413e+16</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="B3">
+        <v>0.06</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>15.8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>0.94</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
+      <c r="D4">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/bacteria_archaea/terrestrial_deep_subsurface/terrestrial_deep_subsurface_prok_biomass_estimate.xlsx
+++ b/bacteria_archaea/terrestrial_deep_subsurface/terrestrial_deep_subsurface_prok_biomass_estimate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Parameter</t>
   </si>
@@ -37,13 +37,22 @@
     <t>Fraction of bacteria</t>
   </si>
   <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
     <t>g C</t>
   </si>
   <si>
     <t>Unitless</t>
   </si>
   <si>
-    <t>20.0</t>
+    <t>19.6</t>
+  </si>
+  <si>
+    <t>1.5</t>
   </si>
 </sst>
 </file>
@@ -429,38 +438,38 @@
         <v>6.17758444661413e+16</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
         <v>9</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>0.06</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>15.8</v>
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>0.94</v>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>1.6</v>
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/bacteria_archaea/terrestrial_deep_subsurface/terrestrial_deep_subsurface_prok_biomass_estimate.xlsx
+++ b/bacteria_archaea/terrestrial_deep_subsurface/terrestrial_deep_subsurface_prok_biomass_estimate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Parameter</t>
   </si>
@@ -37,22 +37,13 @@
     <t>Fraction of bacteria</t>
   </si>
   <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
     <t>g C</t>
   </si>
   <si>
     <t>Unitless</t>
   </si>
   <si>
-    <t>19.6</t>
-  </si>
-  <si>
-    <t>1.5</t>
+    <t>20.0</t>
   </si>
 </sst>
 </file>
@@ -435,41 +426,41 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.17758444661413e+16</v>
+        <v>6.177584446530558e+16</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="B3">
+        <v>0.06</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>14.6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
+      <c r="D4">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/bacteria_archaea/terrestrial_deep_subsurface/terrestrial_deep_subsurface_prok_biomass_estimate.xlsx
+++ b/bacteria_archaea/terrestrial_deep_subsurface/terrestrial_deep_subsurface_prok_biomass_estimate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Parameter</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Fraction of bacteria</t>
+  </si>
+  <si>
+    <t>Carbon content of a single cell</t>
   </si>
   <si>
     <t>g C</t>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,13 +429,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.177584446530558e+16</v>
+        <v>6.17758444661413e+16</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -443,7 +446,7 @@
         <v>0.06</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>14.6</v>
@@ -454,13 +457,24 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2.6e-14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/bacteria_archaea/terrestrial_deep_subsurface/terrestrial_deep_subsurface_prok_biomass_estimate.xlsx
+++ b/bacteria_archaea/terrestrial_deep_subsurface/terrestrial_deep_subsurface_prok_biomass_estimate.xlsx
@@ -429,7 +429,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.17758444661413e+16</v>
+        <v>6.1775844463915e+16</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -449,7 +449,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>14.6</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -463,7 +463,7 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/bacteria_archaea/terrestrial_deep_subsurface/terrestrial_deep_subsurface_prok_biomass_estimate.xlsx
+++ b/bacteria_archaea/terrestrial_deep_subsurface/terrestrial_deep_subsurface_prok_biomass_estimate.xlsx
@@ -449,7 +449,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>17.1</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -463,7 +463,7 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/bacteria_archaea/terrestrial_deep_subsurface/terrestrial_deep_subsurface_prok_biomass_estimate.xlsx
+++ b/bacteria_archaea/terrestrial_deep_subsurface/terrestrial_deep_subsurface_prok_biomass_estimate.xlsx
@@ -449,7 +449,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>17.8</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -463,7 +463,7 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/bacteria_archaea/terrestrial_deep_subsurface/terrestrial_deep_subsurface_prok_biomass_estimate.xlsx
+++ b/bacteria_archaea/terrestrial_deep_subsurface/terrestrial_deep_subsurface_prok_biomass_estimate.xlsx
@@ -429,7 +429,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.1775844463915e+16</v>
+        <v>6.17758444652573e+16</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -449,7 +449,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>17.5</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>

--- a/bacteria_archaea/terrestrial_deep_subsurface/terrestrial_deep_subsurface_prok_biomass_estimate.xlsx
+++ b/bacteria_archaea/terrestrial_deep_subsurface/terrestrial_deep_subsurface_prok_biomass_estimate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Parameter</t>
   </si>
@@ -40,13 +40,22 @@
     <t>Carbon content of a single cell</t>
   </si>
   <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
     <t>g C</t>
   </si>
   <si>
     <t>Unitless</t>
   </si>
   <si>
-    <t>20.0</t>
+    <t>17.4</t>
+  </si>
+  <si>
+    <t>1.5</t>
   </si>
 </sst>
 </file>
@@ -432,38 +441,38 @@
         <v>6.17758444652573e+16</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
         <v>10</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>0.06</v>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>17.1</v>
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>0.9399999999999999</v>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>1.6</v>
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -474,7 +483,7 @@
         <v>2.6e-14</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
